--- a/web/files/newTemplate.xlsx
+++ b/web/files/newTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>订单名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>清关模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内物流商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内物流单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -647,9 +655,11 @@
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -707,8 +717,14 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>36</v>
       </c>
